--- a/excel/ItemData.xlsx
+++ b/excel/ItemData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geukg\OneDrive\문서\TSomSomm\lunaria-project\lunaria-data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF64C64-24E7-49E3-AD25-417ECCEC4638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813B51DF-8461-4F18-A7A1-1BBFEE5964B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="4110" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24720" yWindow="2010" windowWidth="23715" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>string</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -40,14 +40,6 @@
   </si>
   <si>
     <t>IconResourceKey</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용할 화폐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_main_coin</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -62,16 +54,22 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>메인</t>
+      <t>금화</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <family val="3"/>
       </rPr>
-      <t>_</t>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
     </r>
     <r>
       <rPr>
@@ -81,7 +79,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>코인</t>
+      <t>은화</t>
     </r>
     <r>
       <rPr>
@@ -92,6 +90,55 @@
       </rPr>
       <t>]</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔라리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>루나이트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>그레인</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_solari</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_lunite</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_grain</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +512,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -501,20 +548,39 @@
     </row>
     <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">

--- a/excel/ItemData.xlsx
+++ b/excel/ItemData.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geukg\OneDrive\문서\TSomSomm\lunaria-project\lunaria-data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813B51DF-8461-4F18-A7A1-1BBFEE5964B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B442BC-D19C-484E-9A6B-809027FF8B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24720" yWindow="2010" windowWidth="23715" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ItemData" sheetId="1" r:id="rId1"/>
+    <sheet name="Item" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -149,7 +149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$₩-412]#,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -165,12 +165,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -512,17 +514,17 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="4"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="13"/>
+    <col min="1" max="1" width="12.5" style="4"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -534,7 +536,7 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -546,7 +548,7 @@
       </c>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -558,7 +560,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -570,7 +572,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -581,9 +583,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13"/>
+    <row r="7" spans="1:6" ht="13"/>
+    <row r="12" spans="1:6" ht="13">
       <c r="F12" s="1"/>
     </row>
   </sheetData>

--- a/excel/ItemData.xlsx
+++ b/excel/ItemData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B442BC-D19C-484E-9A6B-809027FF8B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78E5BE5-6212-0344-8599-28D24ED29D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>string</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -40,6 +40,14 @@
   </si>
   <si>
     <t>IconResourceKey</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔라리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_solari</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -50,11 +58,30 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Malgun Gothic"/>
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>금화</t>
+      <t>솔라뱅크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화폐</t>
     </r>
     <r>
       <rPr>
@@ -67,80 +94,6 @@
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>은화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>동화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>솔라리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>루나이트</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>그레인</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_solari</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_lunite</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_grain</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -210,7 +163,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Malgun Gothic"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -514,12 +467,12 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="4"/>
+    <col min="1" max="1" width="14.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="13"/>
   </cols>
@@ -550,38 +503,26 @@
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="A4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="A5" s="8"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="13"/>
     <row r="7" spans="1:6" ht="13"/>

--- a/excel/ItemData.xlsx
+++ b/excel/ItemData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78E5BE5-6212-0344-8599-28D24ED29D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25F0FD4-BB05-6746-8717-36BBFF9DD2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>string</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -94,6 +94,18 @@
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>ItemType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum&lt;ItemType&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainCoin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -168,7 +180,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +209,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
   </fills>
@@ -230,9 +248,6 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -244,8 +259,11 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -467,62 +485,68 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="13"/>
+    <col min="4" max="4" width="12.5" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="15">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="8"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="13"/>
     <row r="7" spans="1:6" ht="13"/>

--- a/excel/ItemData.xlsx
+++ b/excel/ItemData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25F0FD4-BB05-6746-8717-36BBFF9DD2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3286CB3-4D06-A844-91CB-CE95143CC9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
   <si>
     <t>int;key</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>Id</t>
@@ -104,6 +101,10 @@
   </si>
   <si>
     <t>MainCoin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>local_string;[Id]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -485,7 +486,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -500,41 +501,41 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15">

--- a/excel/ItemData.xlsx
+++ b/excel/ItemData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3286CB3-4D06-A844-91CB-CE95143CC9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29A85A8-80E1-FA4D-8366-A8A7958D4985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,14 +486,14 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="11"/>
+    <col min="4" max="4" width="16" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">

--- a/excel/ItemData.xlsx
+++ b/excel/ItemData.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29A85A8-80E1-FA4D-8366-A8A7958D4985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F73715E-5C37-AA42-B634-F9A8759022BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="5300" windowWidth="26220" windowHeight="11900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
+    <sheet name="InitialItem" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>string</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -105,6 +106,282 @@
   </si>
   <si>
     <t>local_string;[Id]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artifact</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마도구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스틱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마도구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파우더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마도구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버블건</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>스틱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파우더</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>버블건</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>artifact_powder</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>artifact_stick</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마도구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그라인더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마도구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>펜던트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>그라인더</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>펜던트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>artifact_grinder</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>artifact_bubblegun</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>artifact_pendant</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantity</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -181,7 +458,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +495,12 @@
         <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -246,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -265,6 +548,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -485,13 +770,13 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="16" style="11" customWidth="1"/>
   </cols>
@@ -539,20 +824,136 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" ht="13"/>
-    <row r="7" spans="1:6" ht="13"/>
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="12" spans="1:6" ht="13">
       <c r="F12" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3404EB02-A5A0-8544-AC1C-24A6932127D0}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/excel/ItemData.xlsx
+++ b/excel/ItemData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F73715E-5C37-AA42-B634-F9A8759022BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EC5FAA-1E4B-1B43-9087-4F3FA08DCD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="5300" windowWidth="26220" windowHeight="11900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="5300" windowWidth="26220" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>string</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -382,6 +382,10 @@
   </si>
   <si>
     <t>Quantity</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -770,8 +774,8 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -794,6 +798,9 @@
       <c r="D1" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -808,6 +815,9 @@
       <c r="D2" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="E2" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="7" t="s">
@@ -822,6 +832,9 @@
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="7" t="s">
@@ -836,6 +849,9 @@
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="7" t="s">
@@ -850,6 +866,9 @@
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="7" t="s">
@@ -864,6 +883,9 @@
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="7" t="s">
@@ -878,6 +900,9 @@
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
@@ -891,6 +916,9 @@
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13">
@@ -906,7 +934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3404EB02-A5A0-8544-AC1C-24A6932127D0}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/excel/ItemData.xlsx
+++ b/excel/ItemData.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geugkkom/Documents/Tsomsomm/lunaria-data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EC5FAA-1E4B-1B43-9087-4F3FA08DCD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B96C7B-4821-7F43-A67F-B3F58E8A28F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="5300" windowWidth="26220" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="680" windowWidth="28860" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
-    <sheet name="InitialItem" sheetId="2" r:id="rId2"/>
+    <sheet name="Artifact" sheetId="3" r:id="rId2"/>
+    <sheet name="InitialItem" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>string</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -386,6 +387,33 @@
   </si>
   <si>
     <t>Order</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum&lt;ArtifactType&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArtifactType</t>
+  </si>
+  <si>
+    <t>Stick</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Powder</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bubblegun</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grinder</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pendant</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -554,6 +582,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -774,8 +803,8 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -931,6 +960,82 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61CC70E-C5FC-CC4C-B7A4-2DD0D72CDAD8}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3404EB02-A5A0-8544-AC1C-24A6932127D0}">
   <dimension ref="A1:B5"/>
   <sheetViews>
